--- a/PM/ProduktBacklog.xlsx
+++ b/PM/ProduktBacklog.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/I569653/dev/SurveySphere/PM/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27864D28-66DE-764F-900E-C62A91802C00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E6D477B-7EF5-A64E-9548-DAEEF60C9512}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="860" windowWidth="36000" windowHeight="22520" xr2:uid="{2A708E65-03B2-4A46-BC58-59DD8B57837B}"/>
+    <workbookView xWindow="0" yWindow="880" windowWidth="36000" windowHeight="21060" xr2:uid="{2A708E65-03B2-4A46-BC58-59DD8B57837B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>I12001</t>
   </si>
@@ -47,9 +47,6 @@
     <t>User Story</t>
   </si>
   <si>
-    <t>Als Nutzer möchte ich die Ergebnisse meiner erstellten Umfrage viusell auswerten können.</t>
-  </si>
-  <si>
     <t>Story Points</t>
   </si>
   <si>
@@ -59,19 +56,28 @@
     <t>I12002</t>
   </si>
   <si>
-    <t>Ein Nutzer möchte die Umfrageergenisse als csv exportieren können.</t>
-  </si>
-  <si>
     <t>I12003</t>
   </si>
   <si>
-    <t>Der User möchte mehrere Fragen als multiple oder single Choice in einer Umfrage haben.</t>
-  </si>
-  <si>
     <t>I12004</t>
   </si>
   <si>
-    <t>Ich möchte als Fragenersteller, dass ein Nutzer eine Frage nur einmal beantworten kann</t>
+    <t>I12005</t>
+  </si>
+  <si>
+    <t>Als Nutzer möchte ich die Ergebnisse meiner erstellten Umfrage visuell auswerten können.</t>
+  </si>
+  <si>
+    <t>Als Umfragenersteller möchte ich die Umfrageergebnisse als csv exportieren können.</t>
+  </si>
+  <si>
+    <t>Der Umfragenersteller möchte mehrere Fragen als multiple oder single Choice in einer Umfrage haben.</t>
+  </si>
+  <si>
+    <t>Der Umfragenersteller will, dass ein Nutzer eine Frage nur einmal beantworten kann</t>
+  </si>
+  <si>
+    <t>Ein Umfragenersteller will die Umfrage schließen, wenn genügend Antworten gesammelt wurden oder wenn er sie nicht mehr benötigt.</t>
   </si>
 </sst>
 </file>
@@ -123,19 +129,19 @@
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -156,7 +162,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -201,7 +207,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="general" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -245,13 +251,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{814FA0A1-6757-EF46-9A5E-5FC35398E3F4}" name="Table1" displayName="Table1" ref="A1:D6" totalsRowShown="0" headerRowDxfId="5" dataDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{814FA0A1-6757-EF46-9A5E-5FC35398E3F4}" name="Table1" displayName="Table1" ref="A1:D6" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
   <autoFilter ref="A1:D6" xr:uid="{814FA0A1-6757-EF46-9A5E-5FC35398E3F4}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{9D2C6888-EA38-1B4C-A291-3E9A3017055D}" name="ID" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{F8408169-431F-DA4C-8AEA-941C4F22C2B7}" name="User Story" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{9D2C6888-EA38-1B4C-A291-3E9A3017055D}" name="ID" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{F8408169-431F-DA4C-8AEA-941C4F22C2B7}" name="User Story" dataDxfId="2"/>
     <tableColumn id="3" xr3:uid="{5FF951B6-AE53-0544-BD95-D34A698EB91C}" name="Priorität (0-5)" dataDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{8233250D-3FD4-0F45-A7FF-9639313E7DFD}" name="Story Points" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{8233250D-3FD4-0F45-A7FF-9639313E7DFD}" name="Story Points" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -557,7 +563,7 @@
   <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -577,10 +583,10 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="84" x14ac:dyDescent="0.2">
@@ -588,54 +594,70 @@
         <v>0</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="6">
+        <v>9</v>
+      </c>
+      <c r="C2" s="5">
         <v>5</v>
       </c>
-      <c r="D2" s="6"/>
+      <c r="D2" s="5">
+        <v>60</v>
+      </c>
     </row>
     <row r="3" spans="1:4" ht="63" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="5">
+        <v>0</v>
+      </c>
+      <c r="D3" s="5">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="79" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="3">
-        <v>0</v>
-      </c>
-      <c r="D3" s="3"/>
-    </row>
-    <row r="4" spans="1:4" ht="84" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>8</v>
-      </c>
       <c r="B4" s="4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C4" s="5">
         <v>4</v>
       </c>
-      <c r="D4" s="5"/>
-    </row>
-    <row r="5" spans="1:4" ht="51" x14ac:dyDescent="0.25">
+      <c r="D4" s="6">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="63" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="2">
+        <v>7</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="5">
         <v>3</v>
       </c>
-      <c r="D5" s="5"/>
-    </row>
-    <row r="6" spans="1:4" ht="20" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="5"/>
+      <c r="D5" s="6">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="105" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="5">
+        <v>3</v>
+      </c>
+      <c r="D6" s="6">
+        <v>30</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>

--- a/PM/ProduktBacklog.xlsx
+++ b/PM/ProduktBacklog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/I569653/dev/SurveySphere/PM/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E6D477B-7EF5-A64E-9548-DAEEF60C9512}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BBD187C-3A69-BC4B-B375-EE8D7B4BBC71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="880" windowWidth="36000" windowHeight="21060" xr2:uid="{2A708E65-03B2-4A46-BC58-59DD8B57837B}"/>
+    <workbookView xWindow="25780" yWindow="880" windowWidth="10220" windowHeight="21060" xr2:uid="{2A708E65-03B2-4A46-BC58-59DD8B57837B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -563,7 +563,7 @@
   <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
